--- a/biology/Biologie cellulaire et moléculaire/calmoduline-dépendante/calmoduline-dépendante.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/calmoduline-dépendante/calmoduline-dépendante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>calmoduline-d%C3%A9pendante</t>
+          <t>calmoduline-dépendante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines kinases Ca2+/calmoduline-dépendantes ou CaM kinases sont des kinases Sérine-Thréonine-dépendantes régulées par le complexe Ca2+/calmoduline. 
-La CaMKII est impliquée dans de nombreuses cascades de signalisation, et est un médiateur putatif important de l'apprentissage et de la mémoire[1]. La CaMKII est aussi nécessaire pour l'homéostasie calcique, et la recapture du calcium dans les cardiomyocytes[2] le transport d'ions chlore dans les épithéliums[3], la sélection positive des cellules T[4], et l'activation des cellules T CD8[5]. Il existe une corrélation entre une mauvaise régulation de la CaMKII et la maladie d'Alzheimer, le syndrome d'Angelman, et l'arythmie cardiaque (références 1 et 3).
+La CaMKII est impliquée dans de nombreuses cascades de signalisation, et est un médiateur putatif important de l'apprentissage et de la mémoire. La CaMKII est aussi nécessaire pour l'homéostasie calcique, et la recapture du calcium dans les cardiomyocytes le transport d'ions chlore dans les épithéliums, la sélection positive des cellules T, et l'activation des cellules T CD8. Il existe une corrélation entre une mauvaise régulation de la CaMKII et la maladie d'Alzheimer, le syndrome d'Angelman, et l'arythmie cardiaque (références 1 et 3).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>calmoduline-d%C3%A9pendante</t>
+          <t>calmoduline-dépendante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deux types de CaM kinase existent : 
 Les CaM kinases spécialisées. Par exemple, la kinase des chaînes légères de la myosine (MLCK) qui phosphoryle la myosine, entraînant la contraction des muscles lisses.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>calmoduline-d%C3%A9pendante</t>
+          <t>calmoduline-dépendante</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Structure et autorégulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les CaM kinases possèdent un domaine catalytique N-terminal, un domaine régulateur, et un domaine d'association. Les enzymes s'assemblent en une holoenzyme de structure dodécamérique, les domaines catalytiques dirigés vers l'extérieur, ce qui leur permet de phosphoryler des résidus entre les sous-unités. En l'absence de Ca2+/calmoduline, le domaine catalytique est auto-inhibé par le domaine régulateur, qui contient une séquence de type pseudosubstrat. Plusieurs CaM kinases s'agrègent en homooligomères ou hétérooligomères. Lors de l'activation par le complexe Ca2+/calmoduline, les CaM kinases activées s'autophosphorylent les unes les autres au niveau du résidu thréonine 286. Cela entraîne deux effets : 
 L'augmentation de l'affinité pour le complexe calmoduline, ce qui prolonge la durée d'activité de la kinase ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>calmoduline-d%C3%A9pendante</t>
+          <t>calmoduline-dépendante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de ses capacités d'autophosphorylation, l'activité de la CaMK peut perdurer après la vague calcique intracellulaire requise pour son activation.
-Dans les neurones, cette propriété est importante pour l'induction de la plasticité synaptique[6].
+Dans les neurones, cette propriété est importante pour l'induction de la plasticité synaptique.
 L'inhibition pharmacologique de la CaMKII bloque l'induction de la potentialisation à long terme (LTP). Une fois activée, la CamKII phosphoryle des récepteurs glutamatergiques post-synaptiques, et change ainsi les propriétés électriques de la synapse.
 </t>
         </is>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>calmoduline-d%C3%A9pendante</t>
+          <t>calmoduline-dépendante</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Gènes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>CaMK I - CAMK1, CAMK1D, CAMK1G
 CaMK II - CAMK2A, CAMK2B, CAMK2D, CAMK2G
